--- a/data/trans_camb/P35_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P35_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>11,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 15,49</t>
+          <t>1,29; 21,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 15,29</t>
+          <t>-3,96; 17,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 2,32</t>
+          <t>-15,65; 8,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 0,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -1,4</t>
+          <t>-4,28; 3,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,62</t>
+          <t>-5,62; 1,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,67</t>
+          <t>-4,34; 4,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; -0,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 10,95</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 7,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 4,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-24,51%</t>
+          <t>-7,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-72,54%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>-25,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-10,74%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 84,08</t>
+          <t>4,25; 124,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 83,21</t>
+          <t>-13,42; 107,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 14,0</t>
+          <t>-52,59; 49,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,84; 47,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,36; 9,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,08; -29,66</t>
+          <t>-58,87; 186,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 62,54</t>
+          <t>-72,61; 83,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 51,32</t>
+          <t>-66,34; 192,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-57,38; -8,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 113,94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,33; 73,36</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-45,05; 48,41</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,85</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 0,99</t>
+          <t>-9,41; 1,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 1,92</t>
+          <t>-10,16; 0,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -1,51</t>
+          <t>-10,35; 1,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 0,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 0,15</t>
+          <t>-4,94; 1,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; -0,17</t>
+          <t>-4,94; 0,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 0,5</t>
+          <t>-3,65; 3,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -1,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,85; 0,52</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 0,13</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 1,6</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,55%</t>
+          <t>-18,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>-23,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-31,92%</t>
+          <t>-21,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-27,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,42%</t>
+          <t>-27,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,46%</t>
+          <t>-30,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,2%</t>
+          <t>-5,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-29,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-19,42%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-22,23%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-16,45%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 5,99</t>
+          <t>-41,45; 10,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 12,02</t>
+          <t>-43,88; 1,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,43; -8,98</t>
+          <t>-44,58; 8,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,13; 13,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,4; 5,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,67; 4,39</t>
+          <t>-59,42; 22,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,38; -1,39</t>
+          <t>-58,93; 17,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 4,57</t>
+          <t>-50,27; 67,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,94; -10,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-39,48; 4,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-39,27; 1,47</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-38,25; 15,74</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,91</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 2,4</t>
+          <t>-11,9; 3,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 4,1</t>
+          <t>-12,05; 2,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -3,22</t>
+          <t>-16,78; -2,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 1,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; -0,06</t>
+          <t>-1,78; 5,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 2,53</t>
+          <t>-4,78; 1,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,7</t>
+          <t>-1,47; 6,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -2,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 3,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 0,8</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 1,27</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>-17,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-50,91%</t>
+          <t>-40,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-47,05%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-22,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>42,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-51,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-6,72%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-19,85%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-21,79%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,85; 16,1</t>
+          <t>-43,26; 20,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 25,12</t>
+          <t>-43,96; 14,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-68,94; -18,57</t>
+          <t>-61,64; -10,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 121,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,32; 44,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,39; 7,57</t>
+          <t>-22,41; 125,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 24,12</t>
+          <t>-56,7; 33,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 15,89</t>
+          <t>-20,01; 150,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,25; -25,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-31,52; 27,98</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-41,19; 6,53</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-47,6; 11,44</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,34</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,55</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-4,57</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,33</t>
+          <t>-12,78; -1,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,27; -3,08</t>
+          <t>-5,85; 6,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; -1,45</t>
+          <t>-5,16; 0,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 0,65</t>
+          <t>-6,02; -0,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -2,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; -1,35</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 3,05</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,35%</t>
+          <t>-36,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-32,04%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-51,49%</t>
+          <t>-35,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-8,76%</t>
+          <t>-53,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-35,74%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-34,96%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-6,28%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 12,95</t>
+          <t>-55,44; -11,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 16,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -17,61</t>
+          <t>-26,67; 40,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 20,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,67; -2,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-67,59; -26,37</t>
+          <t>-66,31; 21,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 5,71</t>
+          <t>-75,83; -8,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,61; -22,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-53,15; -11,42</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-29,12; 26,42</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 1,45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 1,94</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,98; 0,16</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 0,97</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; -0,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 1,2</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 0,56</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 0,14</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 0,18</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-9,21%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-6,56%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-15,63%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-10,9%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-30,4%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-8,6%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-9,48%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-12,09%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-13,99%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-24,76; 8,03</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-20,83; 11,04</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-30,73; 1,17</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-31,73; 19,3</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-47,31; -4,62</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-31,5; 23,9</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-21,96; 4,54</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; 1,45</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-27,43; 1,6</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
